--- a/biology/Médecine/Centre_hospitalier_national_universitaire_de_Fann/Centre_hospitalier_national_universitaire_de_Fann.xlsx
+++ b/biology/Médecine/Centre_hospitalier_national_universitaire_de_Fann/Centre_hospitalier_national_universitaire_de_Fann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier national universitaire de Fann (CHNU) est un établissement hospitalier de Dakar (Sénégal), pionnier dans le domaine de la psychiatrie en Afrique subsaharienne, et parfois connu sous le nom de École de Fann ou École de Dakar.
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet de création date de 1955 et les premiers malades, en provenance du centre asilaire du Cap Manuel, arrivent dans le service de Neuropsychiatrie le 17 octobre 1956.
 L'œuvre du médecin militaire français Henri Collomb contribue à faire connaître l'établissement bien au-delà des frontières du pays.
-L'action de la pièce de théâtre de Abdou Anta Kâ, Pinthioum Fann, se situe au Centre hospitalier de Fann[1].
+L'action de la pièce de théâtre de Abdou Anta Kâ, Pinthioum Fann, se situe au Centre hospitalier de Fann.
 </t>
         </is>
       </c>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
